--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,87 +46,93 @@
     <t>warning</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>recession</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>shortage</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -136,22 +142,31 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safety</t>
   </si>
   <si>
     <t>thanks</t>
@@ -160,88 +175,97 @@
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>available</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increased</t>
@@ -250,52 +274,67 @@
     <t>health</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
     <t>essential</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>retail</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>us</t>
   </si>
   <si>
     <t>food</t>
@@ -304,7 +343,10 @@
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -662,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +712,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +773,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -781,13 +823,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>0.9661016949152542</v>
@@ -831,13 +873,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -852,16 +894,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +923,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9361702127659575</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
         <v>44</v>
@@ -923,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -931,13 +973,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8461538461538461</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.8928571428571429</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,31 +1041,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>0.9148936170212766</v>
+      </c>
+      <c r="L8">
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8">
-        <v>0.8916666666666667</v>
-      </c>
-      <c r="L8">
-        <v>107</v>
-      </c>
-      <c r="M8">
-        <v>107</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.8873239436619719</v>
+        <v>0.890625</v>
       </c>
       <c r="L9">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1123,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.839041095890411</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C10">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K10">
-        <v>0.8828125</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L10">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8157894736842105</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8780487804878049</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1223,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8108108108108109</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1202,16 +1244,16 @@
         <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8490566037735849</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7037037037037037</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8431372549019608</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,16 +1344,16 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.84</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1373,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6774193548387096</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.8095238095238095</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1423,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6774193548387096</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.8076923076923077</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1473,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6388888888888888</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.7989556135770235</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L17">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1523,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6274509803921569</v>
+        <v>0.5891472868217055</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,10 +1541,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <v>0.7931034482758621</v>
@@ -1531,13 +1573,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5897435897435898</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.78125</v>
+        <v>0.7875</v>
       </c>
       <c r="L19">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1573,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1623,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5678294573643411</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20">
         <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1673,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5570469798657718</v>
+        <v>0.5167785234899329</v>
       </c>
       <c r="C21">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D21">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7553191489361702</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M21">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1723,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.735593220338983</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L22">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1723,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1773,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4901960784313725</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1791,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.7209302325581395</v>
+        <v>0.7441253263707572</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4888888888888889</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1841,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.6944444444444444</v>
+        <v>0.74</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1873,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4675324675324675</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.676923076923077</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1923,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4406779661016949</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.6764705882352942</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.423728813559322</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1949,19 +1991,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.6741573033707865</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1973,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,13 +2023,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4232804232804233</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1999,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.6652719665271967</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L28">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2023,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2073,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>0.3625</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.65</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L29">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="M29">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2073,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,13 +2123,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3134920634920635</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C30">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2099,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2123,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2131,454 +2173,502 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1903485254691689</v>
+        <v>0.3306772908366534</v>
       </c>
       <c r="C31">
+        <v>83</v>
+      </c>
+      <c r="D31">
+        <v>84</v>
+      </c>
+      <c r="E31">
+        <v>0.01</v>
+      </c>
+      <c r="F31">
+        <v>0.99</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>168</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="L31">
+        <v>23</v>
+      </c>
+      <c r="M31">
+        <v>23</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.1752021563342318</v>
+      </c>
+      <c r="C32">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>67</v>
+      </c>
+      <c r="E32">
+        <v>0.03</v>
+      </c>
+      <c r="F32">
+        <v>0.97</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>306</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.008015389547932029</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>107</v>
+      </c>
+      <c r="E33">
+        <v>0.77</v>
+      </c>
+      <c r="F33">
+        <v>0.23</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>3094</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L33">
+        <v>19</v>
+      </c>
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D31">
-        <v>71</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>302</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31">
-        <v>0.625</v>
-      </c>
-      <c r="L31">
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>30</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32">
-        <v>0.6065573770491803</v>
-      </c>
-      <c r="L32">
+      <c r="K34">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="L34">
+        <v>230</v>
+      </c>
+      <c r="M34">
+        <v>230</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>31</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36">
+        <v>0.6485355648535565</v>
+      </c>
+      <c r="L36">
+        <v>155</v>
+      </c>
+      <c r="M36">
+        <v>155</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>0.6164383561643836</v>
+      </c>
+      <c r="L37">
+        <v>45</v>
+      </c>
+      <c r="M37">
+        <v>45</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>0.96</v>
+      </c>
+      <c r="O38">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.59375</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L40">
+        <v>41</v>
+      </c>
+      <c r="M40">
+        <v>41</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K41">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="L41">
+        <v>45</v>
+      </c>
+      <c r="M41">
+        <v>45</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42">
+        <v>0.575</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="L43">
+        <v>35</v>
+      </c>
+      <c r="M43">
+        <v>35</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L44">
+        <v>36</v>
+      </c>
+      <c r="M44">
+        <v>36</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45">
+        <v>0.525</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="L46">
+        <v>22</v>
+      </c>
+      <c r="M46">
+        <v>22</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>37</v>
       </c>
-      <c r="M32">
-        <v>37</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="L33">
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="L47">
         <v>26</v>
       </c>
-      <c r="M33">
+      <c r="M47">
         <v>26</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34">
-        <v>0.5625</v>
-      </c>
-      <c r="L34">
-        <v>36</v>
-      </c>
-      <c r="M34">
-        <v>36</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K35">
-        <v>0.5616438356164384</v>
-      </c>
-      <c r="L35">
-        <v>41</v>
-      </c>
-      <c r="M35">
-        <v>41</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="L36">
-        <v>40</v>
-      </c>
-      <c r="M36">
-        <v>40</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K37">
-        <v>0.5</v>
-      </c>
-      <c r="L37">
-        <v>20</v>
-      </c>
-      <c r="M37">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38">
-        <v>0.4042553191489361</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="L39">
-        <v>35</v>
-      </c>
-      <c r="M39">
-        <v>35</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40">
-        <v>0.3559322033898305</v>
-      </c>
-      <c r="L40">
-        <v>21</v>
-      </c>
-      <c r="M40">
-        <v>21</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41">
-        <v>0.3472222222222222</v>
-      </c>
-      <c r="L41">
-        <v>25</v>
-      </c>
-      <c r="M41">
-        <v>25</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="L42">
-        <v>35</v>
-      </c>
-      <c r="M42">
-        <v>36</v>
-      </c>
-      <c r="N42">
-        <v>0.97</v>
-      </c>
-      <c r="O42">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
-      <c r="J43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43">
-        <v>0.2283464566929134</v>
-      </c>
-      <c r="L43">
-        <v>29</v>
-      </c>
-      <c r="M43">
-        <v>29</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44">
-        <v>0.2177033492822966</v>
-      </c>
-      <c r="L44">
-        <v>91</v>
-      </c>
-      <c r="M44">
-        <v>91</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K45">
-        <v>0.1958762886597938</v>
-      </c>
-      <c r="L45">
-        <v>19</v>
-      </c>
-      <c r="M45">
-        <v>19</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K46">
-        <v>0.1813953488372093</v>
-      </c>
-      <c r="L46">
-        <v>39</v>
-      </c>
-      <c r="M46">
-        <v>39</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K47">
-        <v>0.1730769230769231</v>
-      </c>
-      <c r="L47">
-        <v>72</v>
-      </c>
-      <c r="M47">
-        <v>72</v>
-      </c>
       <c r="N47">
         <v>1</v>
       </c>
@@ -2589,21 +2679,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K48">
-        <v>0.147239263803681</v>
+        <v>0.2595419847328244</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2615,21 +2705,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>139</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.1393939393939394</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2641,99 +2731,99 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>142</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.1314553990610329</v>
+        <v>0.2120481927710843</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>185</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.1162790697674419</v>
+        <v>0.1839622641509434</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.1104294478527607</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="L52">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M52">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>290</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.09507829977628636</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L53">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2745,73 +2835,73 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>809</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.09442724458204334</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="L54">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>585</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.06594948550046772</v>
+        <v>0.1498470948012232</v>
       </c>
       <c r="L55">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="M55">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1997</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.06104328523862375</v>
+        <v>0.1446540880503145</v>
       </c>
       <c r="L56">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2823,47 +2913,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>846</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.05780346820809248</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>815</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.04938271604938271</v>
+        <v>0.1308724832214765</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2875,85 +2965,423 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>462</v>
+        <v>777</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K59">
-        <v>0.02487046632124352</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>941</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K60">
-        <v>0.02264639275315432</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L60">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M60">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="N60">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>3021</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K61">
-        <v>0.01252740369558409</v>
+        <v>0.1044444444444445</v>
       </c>
       <c r="L61">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M61">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="N61">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>3153</v>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K62">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="L62">
+        <v>19</v>
+      </c>
+      <c r="M62">
+        <v>19</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K63">
+        <v>0.1006493506493507</v>
+      </c>
+      <c r="L63">
+        <v>31</v>
+      </c>
+      <c r="M63">
+        <v>31</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64">
+        <v>0.08733624454148471</v>
+      </c>
+      <c r="L64">
+        <v>20</v>
+      </c>
+      <c r="M64">
+        <v>21</v>
+      </c>
+      <c r="N64">
+        <v>0.95</v>
+      </c>
+      <c r="O64">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65">
+        <v>0.08646616541353383</v>
+      </c>
+      <c r="L65">
+        <v>184</v>
+      </c>
+      <c r="M65">
+        <v>199</v>
+      </c>
+      <c r="N65">
+        <v>0.92</v>
+      </c>
+      <c r="O65">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="L66">
+        <v>39</v>
+      </c>
+      <c r="M66">
+        <v>39</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K67">
+        <v>0.07870370370370371</v>
+      </c>
+      <c r="L67">
+        <v>68</v>
+      </c>
+      <c r="M67">
+        <v>71</v>
+      </c>
+      <c r="N67">
+        <v>0.96</v>
+      </c>
+      <c r="O67">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K68">
+        <v>0.07858243451463791</v>
+      </c>
+      <c r="L68">
+        <v>51</v>
+      </c>
+      <c r="M68">
+        <v>52</v>
+      </c>
+      <c r="N68">
+        <v>0.98</v>
+      </c>
+      <c r="O68">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K69">
+        <v>0.0749063670411985</v>
+      </c>
+      <c r="L69">
+        <v>20</v>
+      </c>
+      <c r="M69">
+        <v>20</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K70">
+        <v>0.04041450777202073</v>
+      </c>
+      <c r="L70">
+        <v>39</v>
+      </c>
+      <c r="M70">
+        <v>42</v>
+      </c>
+      <c r="N70">
+        <v>0.93</v>
+      </c>
+      <c r="O70">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K71">
+        <v>0.03752830799094144</v>
+      </c>
+      <c r="L71">
+        <v>116</v>
+      </c>
+      <c r="M71">
+        <v>132</v>
+      </c>
+      <c r="N71">
+        <v>0.88</v>
+      </c>
+      <c r="O71">
+        <v>0.12</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K72">
+        <v>0.03356890459363958</v>
+      </c>
+      <c r="L72">
+        <v>19</v>
+      </c>
+      <c r="M72">
+        <v>20</v>
+      </c>
+      <c r="N72">
+        <v>0.95</v>
+      </c>
+      <c r="O72">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K73">
+        <v>0.02581863979848866</v>
+      </c>
+      <c r="L73">
+        <v>82</v>
+      </c>
+      <c r="M73">
+        <v>107</v>
+      </c>
+      <c r="N73">
+        <v>0.77</v>
+      </c>
+      <c r="O73">
+        <v>0.23</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K74">
+        <v>0.02077922077922078</v>
+      </c>
+      <c r="L74">
+        <v>24</v>
+      </c>
+      <c r="M74">
+        <v>30</v>
+      </c>
+      <c r="N74">
+        <v>0.8</v>
+      </c>
+      <c r="O74">
+        <v>0.2</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
